--- a/Datos/Database by set/Set with text box/Xlsx sets/Gatecrash Promos (PGTC).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Gatecrash Promos (PGTC).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,392 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Consuming Aberration</t>
+          <t>('Consuming Aberration', ['{3}{U}{B}', 'Creature — Horror', 'Consuming Aberration’s power and toughness are each equal to the number of cards in your opponents’ graveyards.', 'Whenever you cast a spell, each opponent reveals cards from the top of their library until they reveal a land card, then puts those cards into their graveyard.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{U}{B}</t>
+          <t>('Fathom Mage', ['{2}{G}{U}', 'Creature — Human Wizard', 'Evolve (Whenever a creature enters the battlefield under your control, if that creature has greater power or toughness than this creature, put a +1/+1 counter on this creature.)', 'Whenever a +1/+1 counter is put on Fathom Mage, you may draw a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Horror</t>
+          <t>('Firemane Avenger', ['{2}{R}{W}', 'Creature — Angel', 'Flying', 'Battalion — Whenever Firemane Avenger and at least two other creatures attack, Firemane Avenger deals 3 damage to any target and you gain 3 life.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Consuming Aberration’s power and toughness are each equal to the number of cards in your opponents’ graveyards.</t>
+          <t>('Foundry Champion', ['{4}{R}{W}', 'Creature — Elemental Soldier', 'When Foundry Champion enters the battlefield, it deals damage to any target equal to the number of creatures you control.', '{R}: Foundry Champion gets +1/+0 until end of turn.', '{W}: Foundry Champion gets +0/+1 until end of turn.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Whenever you cast a spell, each opponent reveals cards from the top of their library until they reveal a land card, then puts those cards into their graveyard.</t>
+          <t>('Nightveil Specter', ['{U/B}{U/B}{U/B}', 'Creature — Specter', 'Flying', 'Whenever Nightveil Specter deals combat damage to a player, that player exiles the top card of their library.', 'You may play lands and cast spells from among cards exiled with Nightveil Specter.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>*/*</t>
+          <t>('Rubblehulk', ['{4}{R}{G}', 'Creature — Elemental', 'Rubblehulk’s power and toughness are each equal to the number of lands you control.', 'Bloodrush — {1}{R}{G}, Discard Rubblehulk: Target attacking creature gets +X/+X until end of turn, where X is the number of lands you control.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fathom Mage</t>
+          <t>('Skarrg Goliath', ['{6}{G}{G}', 'Creature — Beast', 'Trample', 'Bloodrush — {5}{G}{G}, Discard Skarrg Goliath: Target attacking creature gets +9/+9 and gains trample until end of turn.', '9/9'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{2}{G}{U}</t>
+          <t>('Treasury Thrull', ['{4}{W}{B}', 'Creature — Thrull', 'Extort (Whenever you cast a spell, you may pay {W/B}. If you do, each opponent loses 1 life and you gain that much life.)', 'Whenever Treasury Thrull attacks, you may return target artifact, creature, or enchantment card from your graveyard to your hand.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Evolve (Whenever a creature enters the battlefield under your control, if that creature has greater power or toughness than this creature, put a +1/+1 counter on this creature.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Whenever a +1/+1 counter is put on Fathom Mage, you may draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Firemane Avenger</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{2}{R}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Battalion — Whenever Firemane Avenger and at least two other creatures attack, Firemane Avenger deals 3 damage to any target and you gain 3 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Foundry Champion</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{4}{R}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Creature — Elemental Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>When Foundry Champion enters the battlefield, it deals damage to any target equal to the number of creatures you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{R}: Foundry Champion gets +1/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{W}: Foundry Champion gets +0/+1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Nightveil Specter</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{U/B}{U/B}{U/B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Creature — Specter</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Whenever Nightveil Specter deals combat damage to a player, that player exiles the top card of their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>You may play lands and cast spells from among cards exiled with Nightveil Specter.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Rubblehulk</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{4}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Rubblehulk’s power and toughness are each equal to the number of lands you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Bloodrush — {1}{R}{G}, Discard Rubblehulk: Target attacking creature gets +X/+X until end of turn, where X is the number of lands you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Skarrg Goliath</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{6}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Bloodrush — {5}{G}{G}, Discard Skarrg Goliath: Target attacking creature gets +9/+9 and gains trample until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>9/9</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Treasury Thrull</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>{4}{W}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Creature — Thrull</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Extort (Whenever you cast a spell, you may pay {W/B}. If you do, each opponent loses 1 life and you gain that much life.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Whenever Treasury Thrull attacks, you may return target artifact, creature, or enchantment card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Zameck Guildmage</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>{G}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Creature — Elf Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>{G}{U}: This turn, each creature you control enters the battlefield with an additional +1/+1 counter on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>{G}{U}, Remove a +1/+1 counter from a creature you control: Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zameck Guildmage', ['{G}{U}', 'Creature — Elf Wizard', '{G}{U}: This turn, each creature you control enters the battlefield with an additional +1/+1 counter on it.', '{G}{U}, Remove a +1/+1 counter from a creature you control: Draw a card.', '2/2'])</t>
         </is>
       </c>
     </row>
